--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3681.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3681.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9725357537383816</v>
+        <v>4.743794441223145</v>
       </c>
       <c r="B1">
-        <v>1.375415334145957</v>
+        <v>4.221025466918945</v>
       </c>
       <c r="C1">
-        <v>2.525247307413828</v>
+        <v>3.159626483917236</v>
       </c>
       <c r="D1">
-        <v>7.591562176781323</v>
+        <v>2.159981727600098</v>
       </c>
       <c r="E1">
-        <v>1.982095616291938</v>
+        <v>1.946651220321655</v>
       </c>
     </row>
   </sheetData>
